--- a/medicine/Enfance/Méfiez-vous_de_la_tour_Eiffel/Méfiez-vous_de_la_tour_Eiffel.xlsx
+++ b/medicine/Enfance/Méfiez-vous_de_la_tour_Eiffel/Méfiez-vous_de_la_tour_Eiffel.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>M%C3%A9fiez-vous_de_la_tour_Eiffel</t>
+          <t>Méfiez-vous_de_la_tour_Eiffel</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Méfiez-vous de la tour Eiffel est un roman pour enfant de Jean-Pierre Bastid publié en 1989 dans la collection Souris noire chez Syros (maison d'édition).
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>M%C3%A9fiez-vous_de_la_tour_Eiffel</t>
+          <t>Méfiez-vous_de_la_tour_Eiffel</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Résumé</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Marie-Odile enquête dans son école sur le comportement d'un de ses camarades qui vole les goûters des enfants. Elle se rend compte petit à petit que ses actes sont justifiés[1],[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Marie-Odile enquête dans son école sur le comportement d'un de ses camarades qui vole les goûters des enfants. Elle se rend compte petit à petit que ses actes sont justifiés,.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>M%C3%A9fiez-vous_de_la_tour_Eiffel</t>
+          <t>Méfiez-vous_de_la_tour_Eiffel</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Édition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">En 1989, chez Syros (maison d'édition), appelée également Syros jeunesse, dans la collection Souris noire  (ISBN 9782867383779).
 </t>
